--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -165,7 +165,7 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>Sample Arrival</t>
+    <t>Sample Delivery</t>
   </si>
   <si>
     <t>sarrive</t>
@@ -266,6 +266,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -274,11 +278,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -479,7 +479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -585,12 +585,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -30,6 +30,9 @@
     <t>appearance</t>
   </si>
   <si>
+    <t>relevant</t>
+  </si>
+  <si>
     <t>start</t>
   </si>
   <si>
@@ -87,7 +90,7 @@
     <t>srepeat</t>
   </si>
   <si>
-    <t>New Sample</t>
+    <t>New Scan</t>
   </si>
   <si>
     <t>barcode</t>
@@ -105,7 +108,7 @@
     <t>stype</t>
   </si>
   <si>
-    <t>Specimen Type</t>
+    <t>Scan Type</t>
   </si>
   <si>
     <t>quick search('stypes')</t>
@@ -121,6 +124,9 @@
   </si>
   <si>
     <t>quick search('conditions')</t>
+  </si>
+  <si>
+    <t>not(selected(${stype}, 'form'))</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -230,6 +236,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -266,10 +275,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -278,7 +283,11 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -287,7 +296,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="25.57"/>
     <col customWidth="1" min="5" max="5" width="45.0"/>
-    <col customWidth="1" min="6" max="6" width="14.71"/>
+    <col customWidth="1" min="6" max="6" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -306,180 +315,183 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>36</v>
+      <c r="A13" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -488,7 +500,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -496,96 +508,96 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>47</v>
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -596,19 +608,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
+      <c r="A1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>51</v>
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -171,7 +171,7 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>Sample Delivery</t>
+    <t>2. Sample Delivery</t>
   </si>
   <si>
     <t>sarrive</t>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -99,7 +99,7 @@
     <t>stid</t>
   </si>
   <si>
-    <t>ST Barcode</t>
+    <t>STT Barcode</t>
   </si>
   <si>
     <t>select_one stype</t>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -45,30 +45,18 @@
     <t>simserial</t>
   </si>
   <si>
-    <t>select_one rider</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>Rider Name</t>
+    <t>select_one region</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>quick search('riders')</t>
-  </si>
-  <si>
-    <t>select_one region</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>quick search('regions')</t>
   </si>
   <si>
@@ -87,10 +75,43 @@
     <t>begin repeat</t>
   </si>
   <si>
+    <t>trepeat</t>
+  </si>
+  <si>
+    <t>New Sample Type or Condition</t>
+  </si>
+  <si>
+    <t>select_one stype</t>
+  </si>
+  <si>
+    <t>stype</t>
+  </si>
+  <si>
+    <t>Scan Type</t>
+  </si>
+  <si>
+    <t>quick search('stypes')</t>
+  </si>
+  <si>
+    <t>select_one condition</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>Specimen Condition</t>
+  </si>
+  <si>
+    <t>quick search('conditions')</t>
+  </si>
+  <si>
+    <t>not(selected(${stype}, 'form'))</t>
+  </si>
+  <si>
     <t>srepeat</t>
   </si>
   <si>
-    <t>New Scan</t>
+    <t>New STT Barcode Scans</t>
   </si>
   <si>
     <t>barcode</t>
@@ -100,33 +121,6 @@
   </si>
   <si>
     <t>STT Barcode</t>
-  </si>
-  <si>
-    <t>select_one stype</t>
-  </si>
-  <si>
-    <t>stype</t>
-  </si>
-  <si>
-    <t>Scan Type</t>
-  </si>
-  <si>
-    <t>quick search('stypes')</t>
-  </si>
-  <si>
-    <t>select_one condition</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>Specimen Condition</t>
-  </si>
-  <si>
-    <t>quick search('conditions')</t>
-  </si>
-  <si>
-    <t>not(selected(${stype}, 'form'))</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -227,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -256,13 +250,16 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -295,6 +292,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.57"/>
+    <col customWidth="1" min="3" max="3" width="26.71"/>
     <col customWidth="1" min="5" max="5" width="45.0"/>
     <col customWidth="1" min="6" max="6" width="17.0"/>
   </cols>
@@ -385,37 +383,37 @@
       <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -430,24 +428,24 @@
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
@@ -462,29 +460,35 @@
       <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -500,7 +504,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -508,89 +512,89 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -608,19 +612,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -78,7 +78,7 @@
     <t>trepeat</t>
   </si>
   <si>
-    <t>New Sample Type or Condition</t>
+    <t>Sample Type</t>
   </si>
   <si>
     <t>select_one stype</t>
@@ -105,13 +105,13 @@
     <t>quick search('conditions')</t>
   </si>
   <si>
-    <t>not(selected(${stype}, 'form'))</t>
+    <t>not(selected(${stype}, 'request'))</t>
   </si>
   <si>
     <t>srepeat</t>
   </si>
   <si>
-    <t>New STT Barcode Scans</t>
+    <t>Scan</t>
   </si>
   <si>
     <t>barcode</t>
@@ -392,7 +392,7 @@
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5"/>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -90,7 +90,7 @@
     <t>Scan Type</t>
   </si>
   <si>
-    <t>quick search('stypes')</t>
+    <t>quick search('stypes', 'contains', 'relevant', 'sarrive')</t>
   </si>
   <si>
     <t>select_one condition</t>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>2. Sample Delivery</t>
@@ -608,7 +611,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.71"/>
+    <col customWidth="1" min="1" max="1" width="16.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -618,13 +621,19 @@
       <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="C1" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.016033001E9</v>
       </c>
     </row>
   </sheetData>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>type</t>
   </si>
@@ -51,13 +51,13 @@
     <t>region</t>
   </si>
   <si>
-    <t>Region</t>
+    <t>Facility Lab</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>quick search('regions')</t>
+    <t>quick search('labs')</t>
   </si>
   <si>
     <t>select_one facility</t>
@@ -159,26 +159,17 @@
     <t>cond</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>2. Sample Delivery</t>
-  </si>
-  <si>
-    <t>sarrive</t>
+    <t>lab_key</t>
+  </si>
+  <si>
+    <t>lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -200,10 +191,6 @@
     <font>
       <b/>
     </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -244,9 +231,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -259,12 +243,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -359,16 +351,16 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -377,64 +369,64 @@
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -442,56 +434,56 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -540,35 +532,35 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -576,28 +568,28 @@
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -616,24 +608,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2.016033001E9</v>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -138,18 +138,15 @@
     <t>list name</t>
   </si>
   <si>
-    <t>region_key</t>
+    <t>lab_key</t>
+  </si>
+  <si>
+    <t>lab</t>
   </si>
   <si>
     <t>facility_key</t>
   </si>
   <si>
-    <t>rider</t>
-  </si>
-  <si>
-    <t>rider_key</t>
-  </si>
-  <si>
     <t>stype_key</t>
   </si>
   <si>
@@ -159,17 +156,26 @@
     <t>cond</t>
   </si>
   <si>
-    <t>lab_key</t>
-  </si>
-  <si>
-    <t>lab</t>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>2. Sample Delivery</t>
+  </si>
+  <si>
+    <t>sarrive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -191,6 +197,10 @@
     <font>
       <b/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -246,18 +256,27 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,93 +517,87 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>11</v>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
@@ -607,59 +620,41 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>2</v>
+      <c r="A1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>49</v>
+      <c r="A2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2.016041301E9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -69,7 +69,7 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>quick search('facilities', 'matches', 'region', ${region})</t>
+    <t>quick search('facilities', 'matches', 'lab', ${region})</t>
   </si>
   <si>
     <t>begin repeat</t>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -233,6 +233,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -376,10 +379,10 @@
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -394,58 +397,58 @@
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -453,56 +456,56 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -517,41 +520,41 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -565,44 +568,44 @@
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -620,41 +623,41 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="19">
-        <v>2.016041301E9</v>
+      <c r="C2" s="20">
+        <v>2.016050201E9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -15,36 +15,72 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>list name</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label</t>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>lab_key</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
     <t>appearance</t>
   </si>
   <si>
     <t>relevant</t>
   </si>
   <si>
+    <t>facility_key</t>
+  </si>
+  <si>
     <t>calculation</t>
   </si>
   <si>
     <t>constraint</t>
   </si>
   <si>
+    <t>stype</t>
+  </si>
+  <si>
+    <t>stype_key</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cond_key</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
     <t>constraint message</t>
   </si>
   <si>
@@ -63,24 +99,15 @@
     <t>select_one region</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
+    <t>Facility Lab</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>2. Sample Delivery</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Facility Lab</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>quick search('labs')</t>
   </si>
   <si>
@@ -90,9 +117,6 @@
     <t>calculate</t>
   </si>
   <si>
-    <t>facility</t>
-  </si>
-  <si>
     <t>pulldata('facilities', 'facility_key', 'facility_key', ${region})</t>
   </si>
   <si>
@@ -105,30 +129,6 @@
     <t>Sample Type</t>
   </si>
   <si>
-    <t>lab_key</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>facility_key</t>
-  </si>
-  <si>
-    <t>stype</t>
-  </si>
-  <si>
-    <t>stype_key</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>cond_key</t>
-  </si>
-  <si>
-    <t>cond</t>
-  </si>
-  <si>
     <t>select_one stype</t>
   </si>
   <si>
@@ -165,7 +165,7 @@
     <t>STT Barcode</t>
   </si>
   <si>
-    <t>regex(., '[\w\d]{9}\d{3}')</t>
+    <t>regex(., '^[\d\w]{9}\d{3}$')</t>
   </si>
   <si>
     <t>Scanned barcode does not match the required pattern</t>
@@ -195,15 +195,15 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -240,6 +240,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -250,19 +253,26 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -273,27 +283,17 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -328,214 +328,214 @@
     <col customWidth="1" min="5" max="5" width="45.0"/>
     <col customWidth="1" min="6" max="6" width="27.57"/>
     <col customWidth="1" min="7" max="7" width="39.57"/>
-    <col customWidth="1" min="8" max="8" width="19.71"/>
+    <col customWidth="1" min="8" max="8" width="21.57"/>
     <col customWidth="1" min="9" max="9" width="45.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="C10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="E10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="H12" s="9" t="s">
+      <c r="D12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="H12" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>28</v>
+      <c r="B14" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="21"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -550,92 +550,92 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>37</v>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -653,41 +653,41 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="14">
-        <v>2.016120801E9</v>
+      <c r="A2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="19">
+        <v>2.016120802E9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/sarrive.xlsx
+++ b/sarrive.xlsx
@@ -15,10 +15,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>list name</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>list name</t>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>2. Sample Delivery</t>
   </si>
   <si>
     <t>name</t>
@@ -27,45 +39,66 @@
     <t>label</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
+    <t>sarrive</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>constraint</t>
   </si>
   <si>
     <t>region</t>
   </si>
   <si>
+    <t>constraint message</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
     <t>lab_key</t>
   </si>
   <si>
-    <t>required</t>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>simserial</t>
+  </si>
+  <si>
+    <t>select_one region</t>
   </si>
   <si>
     <t>lab</t>
   </si>
   <si>
+    <t>Facility Lab</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>facility</t>
   </si>
   <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>relevant</t>
+    <t>quick search('labs')</t>
   </si>
   <si>
     <t>facility_key</t>
   </si>
   <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
     <t>stype</t>
   </si>
   <si>
@@ -79,39 +112,6 @@
   </si>
   <si>
     <t>cond</t>
-  </si>
-  <si>
-    <t>constraint message</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>deviceid</t>
-  </si>
-  <si>
-    <t>simserial</t>
-  </si>
-  <si>
-    <t>select_one region</t>
-  </si>
-  <si>
-    <t>Facility Lab</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>2. Sample Delivery</t>
-  </si>
-  <si>
-    <t>quick search('labs')</t>
-  </si>
-  <si>
-    <t>sarrive</t>
   </si>
   <si>
     <t>calculate</t>
@@ -203,14 +203,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
     </font>
     <font/>
   </fonts>
@@ -246,19 +246,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -272,13 +265,20 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -288,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -333,81 +333,81 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="14" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="D6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="E6" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="18"/>
     </row>
@@ -415,11 +415,11 @@
       <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="20"/>
       <c r="G7" s="21" t="s">
@@ -427,30 +427,30 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="21"/>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
+      <c r="D9" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>40</v>
@@ -461,13 +461,13 @@
         <v>41</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>43</v>
@@ -477,10 +477,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -499,13 +499,13 @@
         <v>49</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -513,7 +513,7 @@
       <c r="A13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>45</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
       <c r="A14" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -550,92 +550,92 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>11</v>
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
+      <c r="A4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>21</v>
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -653,41 +653,41 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="19">
-        <v>2.016120802E9</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.016121501E9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
